--- a/엑셀/차트_원형.xlsx
+++ b/엑셀/차트_원형.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019합본호개정판\엑셀실습파일\4장\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kjw\QGIS\엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C835B6-1ECE-420A-ADDD-A4036DE93593}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B5ABD1-5534-4399-9CAF-CAFDA96AA460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25665" yWindow="-1230" windowWidth="23190" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -210,6 +216,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>기업의 매출실적 비율</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -223,7 +254,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -286,17 +317,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>비율</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -304,21 +324,28 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1E21-4967-AD41-9488050A6072}"/>
+                <c16:uniqueId val="{00000001-6914-4EDB-8245-64F6655026A2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -329,21 +356,28 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1E21-4967-AD41-9488050A6072}"/>
+                <c16:uniqueId val="{00000002-6914-4EDB-8245-64F6655026A2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -354,21 +388,28 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1E21-4967-AD41-9488050A6072}"/>
+                <c16:uniqueId val="{00000003-6914-4EDB-8245-64F6655026A2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -379,24 +420,222 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-1E21-4967-AD41-9488050A6072}"/>
+                <c16:uniqueId val="{00000004-6914-4EDB-8245-64F6655026A2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6914-4EDB-8245-64F6655026A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6914-4EDB-8245-64F6655026A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6914-4EDB-8245-64F6655026A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6914-4EDB-8245-64F6655026A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$4:$A$7</c:f>
@@ -440,14 +679,15 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-522B-4103-8D32-2CC05D2BE2A2}"/>
+              <c16:uniqueId val="{00000000-6914-4EDB-8245-64F6655026A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
@@ -462,37 +702,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -571,7 +780,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -582,7 +791,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -594,7 +803,19 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -605,52 +826,25 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -658,50 +852,65 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -711,7 +920,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -723,25 +932,26 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -749,7 +959,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -954,7 +1164,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -962,7 +1172,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1006,7 +1216,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1022,7 +1232,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1093,23 +1303,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>153590</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
+        <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C46128-FBD1-BA38-CADB-7D97A208BB88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
